--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Inhbb-Acvr2a.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Inhbb-Acvr2a.xlsx
@@ -534,16 +534,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>3.345805333333333</v>
+        <v>0.2654603333333334</v>
       </c>
       <c r="H2">
-        <v>10.037416</v>
+        <v>0.796381</v>
       </c>
       <c r="I2">
-        <v>0.3489465220682754</v>
+        <v>0.04079010536687974</v>
       </c>
       <c r="J2">
-        <v>0.3489465220682754</v>
+        <v>0.04079010536687975</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>7.940402333333334</v>
+        <v>15.75563966666667</v>
       </c>
       <c r="N2">
-        <v>23.821207</v>
+        <v>47.266919</v>
       </c>
       <c r="O2">
-        <v>0.1931648990487216</v>
+        <v>0.3220556913988901</v>
       </c>
       <c r="P2">
-        <v>0.1931648990487216</v>
+        <v>0.32205569139889</v>
       </c>
       <c r="Q2">
-        <v>26.56704047567911</v>
+        <v>4.182497357793222</v>
       </c>
       <c r="R2">
-        <v>239.103364281112</v>
+        <v>37.642476220139</v>
       </c>
       <c r="S2">
-        <v>0.06740421970872093</v>
+        <v>0.01313668558616403</v>
       </c>
       <c r="T2">
-        <v>0.06740421970872094</v>
+        <v>0.01313668558616403</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>3.345805333333333</v>
+        <v>0.2654603333333334</v>
       </c>
       <c r="H3">
-        <v>10.037416</v>
+        <v>0.796381</v>
       </c>
       <c r="I3">
-        <v>0.3489465220682754</v>
+        <v>0.04079010536687974</v>
       </c>
       <c r="J3">
-        <v>0.3489465220682754</v>
+        <v>0.04079010536687975</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>80.861542</v>
       </c>
       <c r="O3">
-        <v>0.6557019380820612</v>
+        <v>0.5509544596378365</v>
       </c>
       <c r="P3">
-        <v>0.6557019380820612</v>
+        <v>0.5509544596378364</v>
       </c>
       <c r="Q3">
-        <v>90.1823261617191</v>
+        <v>7.155177297722445</v>
       </c>
       <c r="R3">
-        <v>811.640935455472</v>
+        <v>64.396595679502</v>
       </c>
       <c r="S3">
-        <v>0.2288049108071629</v>
+        <v>0.02247349046097964</v>
       </c>
       <c r="T3">
-        <v>0.2288049108071629</v>
+        <v>0.02247349046097964</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>3.345805333333333</v>
+        <v>0.2654603333333334</v>
       </c>
       <c r="H4">
-        <v>10.037416</v>
+        <v>0.796381</v>
       </c>
       <c r="I4">
-        <v>0.3489465220682754</v>
+        <v>0.04079010536687974</v>
       </c>
       <c r="J4">
-        <v>0.3489465220682754</v>
+        <v>0.04079010536687975</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,22 +682,22 @@
         <v>18.637829</v>
       </c>
       <c r="O4">
-        <v>0.1511331628692172</v>
+        <v>0.1269898489632735</v>
       </c>
       <c r="P4">
-        <v>0.1511331628692172</v>
+        <v>0.1269898489632735</v>
       </c>
       <c r="Q4">
-        <v>20.78618255665155</v>
+        <v>1.649201432983222</v>
       </c>
       <c r="R4">
-        <v>187.075643009864</v>
+        <v>14.842812896849</v>
       </c>
       <c r="S4">
-        <v>0.05273739155239154</v>
+        <v>0.005179929319736072</v>
       </c>
       <c r="T4">
-        <v>0.05273739155239156</v>
+        <v>0.005179929319736072</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>16.440185</v>
       </c>
       <c r="I5">
-        <v>0.5715360783999617</v>
+        <v>0.8420553458721338</v>
       </c>
       <c r="J5">
-        <v>0.5715360783999618</v>
+        <v>0.8420553458721339</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>7.940402333333334</v>
+        <v>15.75563966666667</v>
       </c>
       <c r="N5">
-        <v>23.821207</v>
+        <v>47.266919</v>
       </c>
       <c r="O5">
-        <v>0.1931648990487216</v>
+        <v>0.3220556913988901</v>
       </c>
       <c r="P5">
-        <v>0.1931648990487216</v>
+        <v>0.32205569139889</v>
       </c>
       <c r="Q5">
-        <v>43.51389444481056</v>
+        <v>86.34187697111278</v>
       </c>
       <c r="R5">
-        <v>391.625050003295</v>
+        <v>777.076892740015</v>
       </c>
       <c r="S5">
-        <v>0.1104007088868309</v>
+        <v>0.2711887166109815</v>
       </c>
       <c r="T5">
-        <v>0.1104007088868309</v>
+        <v>0.2711887166109815</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>16.440185</v>
       </c>
       <c r="I6">
-        <v>0.5715360783999617</v>
+        <v>0.8420553458721338</v>
       </c>
       <c r="J6">
-        <v>0.5715360783999618</v>
+        <v>0.8420553458721339</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>80.861542</v>
       </c>
       <c r="O6">
-        <v>0.6557019380820612</v>
+        <v>0.5509544596378365</v>
       </c>
       <c r="P6">
-        <v>0.6557019380820612</v>
+        <v>0.5509544596378364</v>
       </c>
       <c r="Q6">
         <v>147.7087455405855</v>
@@ -818,10 +818,10 @@
         <v>1329.37870986527</v>
       </c>
       <c r="S6">
-        <v>0.3747573142906758</v>
+        <v>0.463934148070133</v>
       </c>
       <c r="T6">
-        <v>0.3747573142906758</v>
+        <v>0.463934148070133</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>16.440185</v>
       </c>
       <c r="I7">
-        <v>0.5715360783999617</v>
+        <v>0.8420553458721338</v>
       </c>
       <c r="J7">
-        <v>0.5715360783999618</v>
+        <v>0.8420553458721339</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,10 +868,10 @@
         <v>18.637829</v>
       </c>
       <c r="O7">
-        <v>0.1511331628692172</v>
+        <v>0.1269898489632735</v>
       </c>
       <c r="P7">
-        <v>0.1511331628692172</v>
+        <v>0.1269898489632735</v>
       </c>
       <c r="Q7">
         <v>34.04548408426277</v>
@@ -880,10 +880,10 @@
         <v>306.409356758365</v>
       </c>
       <c r="S7">
-        <v>0.08637805522245508</v>
+        <v>0.1069324811910193</v>
       </c>
       <c r="T7">
-        <v>0.08637805522245511</v>
+        <v>0.1069324811910193</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,16 +906,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.7624370000000001</v>
+        <v>0.7624369999999999</v>
       </c>
       <c r="H8">
         <v>2.287311</v>
       </c>
       <c r="I8">
-        <v>0.07951739953176287</v>
+        <v>0.1171545487609863</v>
       </c>
       <c r="J8">
-        <v>0.07951739953176287</v>
+        <v>0.1171545487609864</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>7.940402333333334</v>
+        <v>15.75563966666667</v>
       </c>
       <c r="N8">
-        <v>23.821207</v>
+        <v>47.266919</v>
       </c>
       <c r="O8">
-        <v>0.1931648990487216</v>
+        <v>0.3220556913988901</v>
       </c>
       <c r="P8">
-        <v>0.1931648990487216</v>
+        <v>0.32205569139889</v>
       </c>
       <c r="Q8">
-        <v>6.054056533819669</v>
+        <v>12.01268264053433</v>
       </c>
       <c r="R8">
-        <v>54.48650880437701</v>
+        <v>108.114143764809</v>
       </c>
       <c r="S8">
-        <v>0.01535997045316984</v>
+        <v>0.03773028920174443</v>
       </c>
       <c r="T8">
-        <v>0.01535997045316984</v>
+        <v>0.03773028920174443</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.7624370000000001</v>
+        <v>0.7624369999999999</v>
       </c>
       <c r="H9">
         <v>2.287311</v>
       </c>
       <c r="I9">
-        <v>0.07951739953176287</v>
+        <v>0.1171545487609863</v>
       </c>
       <c r="J9">
-        <v>0.07951739953176287</v>
+        <v>0.1171545487609864</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>80.861542</v>
       </c>
       <c r="O9">
-        <v>0.6557019380820612</v>
+        <v>0.5509544596378365</v>
       </c>
       <c r="P9">
-        <v>0.6557019380820612</v>
+        <v>0.5509544596378364</v>
       </c>
       <c r="Q9">
-        <v>20.55061049928467</v>
+        <v>20.55061049928466</v>
       </c>
       <c r="R9">
         <v>184.955494493562</v>
       </c>
       <c r="S9">
-        <v>0.05213971298422251</v>
+        <v>0.0645468211067238</v>
       </c>
       <c r="T9">
-        <v>0.05213971298422251</v>
+        <v>0.06454682110672379</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.7624370000000001</v>
+        <v>0.7624369999999999</v>
       </c>
       <c r="H10">
         <v>2.287311</v>
       </c>
       <c r="I10">
-        <v>0.07951739953176287</v>
+        <v>0.1171545487609863</v>
       </c>
       <c r="J10">
-        <v>0.07951739953176287</v>
+        <v>0.1171545487609864</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,22 +1054,22 @@
         <v>18.637829</v>
       </c>
       <c r="O10">
-        <v>0.1511331628692172</v>
+        <v>0.1269898489632735</v>
       </c>
       <c r="P10">
-        <v>0.1511331628692172</v>
+        <v>0.1269898489632735</v>
       </c>
       <c r="Q10">
-        <v>4.736723476424334</v>
+        <v>4.736723476424332</v>
       </c>
       <c r="R10">
         <v>42.630511287819</v>
       </c>
       <c r="S10">
-        <v>0.01201771609437053</v>
+        <v>0.01487743845251812</v>
       </c>
       <c r="T10">
-        <v>0.01201771609437053</v>
+        <v>0.01487743845251812</v>
       </c>
     </row>
   </sheetData>
